--- a/program_directory/interpreterAccounting/通策医疗：2018年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/通策医疗：2018年年度报告.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
     <sheet name="分季度主要财务数据" sheetId="2" r:id="rId2"/>
+    <sheet name="主营业务分行业经营情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>主要会计数据</t>
   </si>
@@ -106,6 +107,108 @@
   </si>
   <si>
     <t>经营活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>主营业务分行业情况</t>
+  </si>
+  <si>
+    <t>分行业</t>
+  </si>
+  <si>
+    <t>营业成本</t>
+  </si>
+  <si>
+    <t>毛利率（%）</t>
+  </si>
+  <si>
+    <t>营业收入比上年增减（%）</t>
+  </si>
+  <si>
+    <t>营业成本比上年增减（%）</t>
+  </si>
+  <si>
+    <t>毛利率比上年增减（%）</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>1,474,299,054.27</t>
+  </si>
+  <si>
+    <t>828,158,570.54</t>
+  </si>
+  <si>
+    <t>增加2.44个百分点</t>
+  </si>
+  <si>
+    <t>产品销售</t>
+  </si>
+  <si>
+    <t>62,710,434.69</t>
+  </si>
+  <si>
+    <t>47,778,575.07</t>
+  </si>
+  <si>
+    <t>减少2.68个百分点</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>3,501,236.21</t>
+  </si>
+  <si>
+    <t>不适用</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>1,540,510,725.17</t>
+  </si>
+  <si>
+    <t>875,937,145.61</t>
+  </si>
+  <si>
+    <t>增加1.93个百分点</t>
+  </si>
+  <si>
+    <t>主营业务分产品情况</t>
+  </si>
+  <si>
+    <t>分产品</t>
+  </si>
+  <si>
+    <t>主营业务分地区情况</t>
+  </si>
+  <si>
+    <t>分地区</t>
+  </si>
+  <si>
+    <t>浙江省内</t>
+  </si>
+  <si>
+    <t>1,410,830,668.26</t>
+  </si>
+  <si>
+    <t>767,574,304.43</t>
+  </si>
+  <si>
+    <t>增加2.25个百分点</t>
+  </si>
+  <si>
+    <t>浙江省外</t>
+  </si>
+  <si>
+    <t>129,680,056.91</t>
+  </si>
+  <si>
+    <t>108,362,841.18</t>
+  </si>
+  <si>
+    <t>减少3.19个百分点</t>
   </si>
 </sst>
 </file>
@@ -113,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,6 +239,58 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -143,18 +298,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +344,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -175,97 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,61 +383,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,121 +479,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -512,6 +600,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,153 +677,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,16 +1213,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1546043486.35</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1179727843.01</v>
       </c>
       <c r="D3">
         <v>31.05</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>878763713.93</v>
       </c>
     </row>
@@ -1131,16 +1235,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>332092898.42</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>216574727.65</v>
       </c>
       <c r="D5">
         <v>53.34</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>136164731.11</v>
       </c>
     </row>
@@ -1153,24 +1257,24 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>326953777.64</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>212920593.45</v>
       </c>
       <c r="D8">
         <v>53.56</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>132625550.63</v>
       </c>
     </row>
@@ -1183,16 +1287,16 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>469415593.6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>346553967.15</v>
       </c>
       <c r="D10">
         <v>35.45</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>160986254.39</v>
       </c>
     </row>
@@ -1200,7 +1304,7 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
@@ -1224,16 +1328,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1315208572.85</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>992569273.83</v>
       </c>
       <c r="D14">
         <v>32.51</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>817658658.93</v>
       </c>
     </row>
@@ -1241,16 +1345,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>2132691687.02</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1794532319.05</v>
       </c>
       <c r="D15">
         <v>18.84</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>1286049125.07</v>
       </c>
     </row>
@@ -1265,7 +1369,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1309,50 +1413,50 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>308444417.09</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>376832981.82</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>478189090.61</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>382576996.83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>61614635.19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>73246918.78</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>140531590.79</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>56699753.66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>61484235.77</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>70988317.78</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>138337488.85</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>56143735.24</v>
       </c>
     </row>
@@ -1360,17 +1464,379 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>8480598.33</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>144710809.31</v>
       </c>
+      <c r="D6" s="2">
+        <v>182046503.42</v>
+      </c>
+      <c r="E6" s="2">
+        <v>134177682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="27.8888888888889" style="1" customWidth="true"/>
+    <col min="2" max="2" width="15.5555555555556" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14" style="1" customWidth="true"/>
+    <col min="4" max="4" width="11.2222222222222" style="1" customWidth="true"/>
+    <col min="5" max="6" width="22.2222222222222" style="1" customWidth="true"/>
+    <col min="7" max="7" width="20.4444444444444" style="1" customWidth="true"/>
+    <col min="8" max="8" width="14" style="1" customWidth="true"/>
+    <col min="9" max="9" width="7.88888888888889" style="1" customWidth="true"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43.83</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.81</v>
+      </c>
+      <c r="E4" s="1">
+        <v>160.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>169.99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25.15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" s="1">
-        <v>182046503.42</v>
+        <v>43.14</v>
       </c>
       <c r="E6" s="1">
-        <v>134177682</v>
+        <v>31.06</v>
+      </c>
+      <c r="F6" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43.83</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28.36</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23.81</v>
+      </c>
+      <c r="E10" s="1">
+        <v>160.51</v>
+      </c>
+      <c r="F10" s="1">
+        <v>169.99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25.15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43.14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31.06</v>
+      </c>
+      <c r="F12" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45.59</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>26.65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22.58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>27.45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43.14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>31.06</v>
+      </c>
+      <c r="F17" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
